--- a/data/brief_pilot_data.xlsx
+++ b/data/brief_pilot_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon/BrICC Clinic/BrICC Terms/Spring 2020/pilot_data_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78EB2892-7F5D-D841-97C2-1602B3E2AC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EE1339-4719-C54C-833A-12173D1A7834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{535FFCA6-BCDB-9644-B2EE-ABF61D4C890B}"/>
+    <workbookView xWindow="34700" yWindow="3780" windowWidth="28040" windowHeight="16260" xr2:uid="{535FFCA6-BCDB-9644-B2EE-ABF61D4C890B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,7 +246,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -276,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,16 +600,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD97DF9-D58B-9549-B298-1308EE02910C}">
   <dimension ref="A1:BI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="15.83203125" style="3"/>
+    <col min="1" max="17" width="15.83203125" style="2"/>
+    <col min="18" max="18" width="20.33203125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="15.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,320 +796,342 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>51</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3">
+        <v>54</v>
+      </c>
       <c r="D2" s="1">
         <v>51</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1">
         <v>55</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3">
+        <v>50</v>
+      </c>
       <c r="H2" s="1">
         <v>65</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="1">
         <v>61</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="3">
+        <v>61</v>
+      </c>
       <c r="L2" s="1">
         <v>61</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="3"/>
       <c r="N2" s="1">
         <v>61</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="3">
+        <v>48</v>
+      </c>
       <c r="P2" s="1">
         <v>68</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
       <c r="V2" s="1">
         <v>59</v>
       </c>
-      <c r="W2" s="2"/>
+      <c r="W2" s="3">
+        <v>59</v>
+      </c>
       <c r="X2" s="1">
         <v>59</v>
       </c>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="3"/>
       <c r="Z2" s="1">
         <v>60</v>
       </c>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="3">
+        <v>51</v>
+      </c>
       <c r="AB2" s="1">
         <v>56</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
       <c r="AF2" s="1">
         <v>53</v>
       </c>
-      <c r="AG2" s="2"/>
+      <c r="AG2" s="3"/>
       <c r="AH2" s="1">
         <v>58</v>
       </c>
-      <c r="AI2" s="2"/>
+      <c r="AI2" s="3">
+        <v>65</v>
+      </c>
       <c r="AJ2" s="1">
         <v>49</v>
       </c>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
       <c r="AN2" s="1">
         <v>60</v>
       </c>
-      <c r="AO2" s="2"/>
+      <c r="AO2" s="3"/>
       <c r="AP2" s="1">
         <v>53</v>
       </c>
-      <c r="AQ2" s="2"/>
+      <c r="AQ2" s="3">
+        <v>52</v>
+      </c>
       <c r="AR2" s="1">
         <v>57</v>
       </c>
-      <c r="AS2" s="2"/>
+      <c r="AS2" s="3"/>
       <c r="AT2" s="1">
         <v>62</v>
       </c>
-      <c r="AU2" s="2"/>
+      <c r="AU2" s="3">
+        <v>54</v>
+      </c>
       <c r="AV2" s="1">
         <v>66</v>
       </c>
-      <c r="AW2" s="2"/>
+      <c r="AW2" s="3"/>
       <c r="AX2" s="1">
         <v>60</v>
       </c>
-      <c r="AY2" s="2"/>
+      <c r="AY2" s="3">
+        <v>43</v>
+      </c>
       <c r="AZ2" s="1">
         <v>56</v>
       </c>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
       <c r="BF2" s="1">
         <v>60</v>
       </c>
-      <c r="BG2" s="2"/>
+      <c r="BG2" s="3">
+        <v>54</v>
+      </c>
       <c r="BH2" s="1">
         <v>57</v>
       </c>
-      <c r="BI2" s="2"/>
+      <c r="BI2" s="3"/>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>46</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1">
         <v>46</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1">
         <v>42</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="1">
         <v>54</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1">
         <v>52</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="1">
         <v>50</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="1">
         <v>41</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="1">
         <v>41</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
       <c r="V3" s="1">
         <v>78</v>
       </c>
-      <c r="W3" s="2"/>
+      <c r="W3" s="3"/>
       <c r="X3" s="1">
         <v>65</v>
       </c>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="3"/>
       <c r="Z3" s="1">
         <v>74</v>
       </c>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="3"/>
       <c r="AB3" s="1">
         <v>72</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
       <c r="AF3" s="1">
         <v>55</v>
       </c>
-      <c r="AG3" s="2"/>
+      <c r="AG3" s="3"/>
       <c r="AH3" s="1">
         <v>80</v>
       </c>
-      <c r="AI3" s="2"/>
+      <c r="AI3" s="3"/>
       <c r="AJ3" s="1">
         <v>56</v>
       </c>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
       <c r="AN3" s="1">
         <v>55</v>
       </c>
-      <c r="AO3" s="2"/>
+      <c r="AO3" s="3"/>
       <c r="AP3" s="1">
         <v>44</v>
       </c>
-      <c r="AQ3" s="2"/>
+      <c r="AQ3" s="3"/>
       <c r="AR3" s="1">
         <v>49</v>
       </c>
-      <c r="AS3" s="2"/>
+      <c r="AS3" s="3"/>
       <c r="AT3" s="1">
         <v>48</v>
       </c>
-      <c r="AU3" s="2"/>
+      <c r="AU3" s="3"/>
       <c r="AV3" s="1">
         <v>45</v>
       </c>
-      <c r="AW3" s="2"/>
+      <c r="AW3" s="3"/>
       <c r="AX3" s="1">
         <v>79</v>
       </c>
-      <c r="AY3" s="2"/>
+      <c r="AY3" s="3"/>
       <c r="AZ3" s="1">
         <v>62</v>
       </c>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
       <c r="BF3" s="1">
         <v>63</v>
       </c>
-      <c r="BG3" s="2"/>
+      <c r="BG3" s="3"/>
       <c r="BH3" s="1">
         <v>55</v>
       </c>
-      <c r="BI3" s="2"/>
+      <c r="BI3" s="3"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>63</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1">
         <v>50</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="1">
         <v>60</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="1">
         <v>60</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
       <c r="V4" s="1">
         <v>66</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
       <c r="Z4" s="1">
         <v>52</v>
       </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
       <c r="AD4" s="1">
         <v>60</v>
       </c>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
       <c r="AH4" s="1">
         <v>59</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
       <c r="AL4" s="1">
         <v>56</v>
       </c>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
       <c r="AP4" s="1">
         <v>61</v>
       </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
       <c r="BB4" s="1">
         <v>59</v>
       </c>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
       <c r="BF4" s="1">
         <v>61</v>
       </c>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
